--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pedropy\proyectopy\valorizador\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55487B2-71FA-46C1-B1E5-202FD84D3DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29275B87-9D1C-45F3-B784-C5A2533FE2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="6828" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="439">
   <si>
     <t>PROYECTO</t>
   </si>
@@ -57,39 +57,9 @@
     <t>MONTO CONTRATO</t>
   </si>
   <si>
-    <t>ADELANTO DIRECTO</t>
-  </si>
-  <si>
-    <t>ADELANTO MATERIALES</t>
-  </si>
-  <si>
-    <t>: “RECONSTRUCCIÓN DE PISTAS Y VEREDAS EN LA AV. LAS TORRES TRAMO DESDE LA AV. CIRCUNVALACIÓN HASTA LA ALTURA DE LA QUINTA AV., L = 1.99 KM DISTRITO DE LURIGANCHO CHOSICA, LIMA – LIMA”. Con código único de inversión (IRI): 2498581</t>
-  </si>
-  <si>
-    <t>:  KM 0+000 - KM 90+115 - KM 0+000 - KM 18+260</t>
-  </si>
-  <si>
-    <t>: GOBIERNO REGIONAL DE LIMA METROPOLITANA</t>
-  </si>
-  <si>
     <t>ENTIDAD (CLIENTE)</t>
   </si>
   <si>
-    <t>: CONTRATISTA S.A.C.</t>
-  </si>
-  <si>
-    <t>: CONSORCIO SUPERVISOR</t>
-  </si>
-  <si>
-    <t>: 027-2021-MML-PGRLM-SRAF</t>
-  </si>
-  <si>
-    <t>: 24/09/2021</t>
-  </si>
-  <si>
-    <t>: 120 días Calendarios</t>
-  </si>
-  <si>
     <t>15 de octubre de 2021</t>
   </si>
   <si>
@@ -1339,6 +1309,39 @@
   </si>
   <si>
     <t>COMPUERTA METALICA DE IZAJE</t>
+  </si>
+  <si>
+    <t>Numero de valorizacion</t>
+  </si>
+  <si>
+    <t>“RECONSTRUCCIÓN DE PISTAS Y VEREDAS EN LA AV. LAS TORRES TRAMO DESDE LA AV. CIRCUNVALACIÓN HASTA LA ALTURA DE LA QUINTA AV., L = 1.99 KM DISTRITO DE LURIGANCHO CHOSICA, LIMA – LIMA”. Con código único de inversión (IRI): 2498581</t>
+  </si>
+  <si>
+    <t>KM 0+000 - KM 90+115 - KM 0+000 - KM 18+260</t>
+  </si>
+  <si>
+    <t>GOBIERNO REGIONAL DE LIMA METROPOLITANA</t>
+  </si>
+  <si>
+    <t>CONTRATISTA S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSORCIO SUPERVISOR</t>
+  </si>
+  <si>
+    <t>027-2021-MML-PGRLM-SRAF</t>
+  </si>
+  <si>
+    <t>120 días Calendarios</t>
+  </si>
+  <si>
+    <t>Mes de valorizacion</t>
+  </si>
+  <si>
+    <t>Año de valorizacion</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1381,9 +1383,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,20 +1667,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E237" sqref="E237"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,15 +1691,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1709,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,15 +1723,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
+      <c r="B7" s="2">
+        <v>44463</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1733,7 +1739,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1749,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,482 +1768,356 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
+        <v>437</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2154.83</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>1800</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>7.07</v>
+        <v>2154.83</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1490.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1800</v>
       </c>
       <c r="E22">
-        <v>4050</v>
+        <v>7.07</v>
       </c>
       <c r="F22">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.43000000000000016</v>
+        <v>1490.2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>601.42999999999995</v>
+        <v>4050</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="G23">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>601.42999999999995</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>315</v>
-      </c>
-      <c r="F26">
-        <v>0.54</v>
-      </c>
-      <c r="G26">
-        <v>0.10999999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>2250</v>
+        <v>315</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G27">
-        <v>0.65</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>315</v>
-      </c>
-      <c r="F29">
-        <v>0.54</v>
-      </c>
-      <c r="G29">
-        <v>0.10999999999999999</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>658.47</v>
-      </c>
-      <c r="F31">
-        <v>0.54</v>
-      </c>
-      <c r="G31">
-        <v>0.10999999999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1080</v>
+        <v>658.47</v>
       </c>
       <c r="F32">
         <v>0.54</v>
       </c>
       <c r="G32">
-        <v>0.10999999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>20413.14</v>
-      </c>
-      <c r="F35">
-        <v>0.5</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>20413.14</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2245,42 +2125,30 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
-        <v>36901.11</v>
-      </c>
-      <c r="E37">
-        <v>1.54</v>
-      </c>
-      <c r="F37">
-        <v>36901.11</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>36901.11</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>36901.11</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2288,619 +2156,520 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>145253.15</v>
-      </c>
-      <c r="F39">
-        <v>0.54</v>
-      </c>
-      <c r="G39">
-        <v>0.10999999999999999</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>20608.560000000001</v>
+        <v>145253.15</v>
       </c>
       <c r="F40">
         <v>0.54</v>
       </c>
       <c r="G40">
-        <v>0.10999999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>288.01</v>
+        <v>20608.560000000001</v>
       </c>
       <c r="F41">
         <v>0.54</v>
       </c>
       <c r="G41">
-        <v>0.10999999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>3600</v>
+        <v>288.01</v>
       </c>
       <c r="F42">
         <v>0.54</v>
       </c>
       <c r="G42">
-        <v>0.10999999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>3150</v>
+        <v>3600</v>
       </c>
       <c r="F43">
         <v>0.54</v>
       </c>
       <c r="G43">
-        <v>0.10999999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47">
-        <v>15662.29</v>
-      </c>
-      <c r="E47">
-        <v>6.72</v>
-      </c>
-      <c r="F47">
-        <v>12284</v>
-      </c>
-      <c r="G47">
-        <v>2399.5300000000007</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D48">
-        <v>3639.35</v>
+        <v>15662.29</v>
       </c>
       <c r="E48">
-        <v>17.329999999999998</v>
+        <v>6.72</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>12284</v>
       </c>
       <c r="G48">
-        <v>3247.34</v>
+        <v>2399.5300000000002</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D49">
-        <v>3356.48</v>
+        <v>3639.35</v>
       </c>
       <c r="E49">
-        <v>20.81</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="F49">
-        <v>3033.05</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>242.04999999999973</v>
+        <v>3247.34</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>197.79</v>
+        <v>3356.48</v>
       </c>
       <c r="E50">
         <v>20.81</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3033.05</v>
       </c>
       <c r="G50">
-        <v>176.75</v>
+        <v>242.05</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>2225.5</v>
+        <v>197.79</v>
       </c>
       <c r="E51">
-        <v>25.18</v>
+        <v>20.81</v>
       </c>
       <c r="F51">
-        <v>796.18</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1127.77</v>
+        <v>176.75</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2225.5</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>796.18</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1127.77</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53">
-        <v>20854.39</v>
-      </c>
-      <c r="E53">
-        <v>1.54</v>
-      </c>
-      <c r="F53">
-        <v>14760</v>
-      </c>
-      <c r="G53">
-        <v>2801.9900000000016</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>20854.39</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>14760</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2801.99</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55">
-        <v>13810.07</v>
-      </c>
-      <c r="E55">
-        <v>5.91</v>
-      </c>
-      <c r="F55">
-        <v>8813.48</v>
-      </c>
-      <c r="G55">
-        <v>673.78000000000065</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D56">
-        <v>4.38</v>
+        <v>13810.07</v>
       </c>
       <c r="E56">
-        <v>57.83</v>
+        <v>5.91</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>8813.48</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>673.78</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D57">
-        <v>20854.39</v>
+        <v>4.38</v>
       </c>
       <c r="E57">
-        <v>2.09</v>
+        <v>57.83</v>
       </c>
       <c r="F57">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D58">
-        <v>15342.94</v>
+        <v>20854.39</v>
       </c>
       <c r="E58">
-        <v>25.18</v>
+        <v>2.09</v>
       </c>
       <c r="F58">
-        <v>11016.84</v>
+        <v>13500</v>
       </c>
       <c r="G58">
-        <v>842.22999999999956</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>15342.94</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>11016.84</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>842.23</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60">
-        <v>20854.39</v>
-      </c>
-      <c r="E60">
-        <v>12.33</v>
-      </c>
-      <c r="F60">
-        <v>13500</v>
-      </c>
-      <c r="G60">
-        <v>630</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>20854.39</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>12.33</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62">
-        <v>8299</v>
-      </c>
-      <c r="E62">
-        <v>1.89</v>
-      </c>
-      <c r="F62">
-        <v>2702</v>
-      </c>
-      <c r="G62">
-        <v>2519.3999999999996</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D63">
-        <v>7215.16</v>
+        <v>8299</v>
       </c>
       <c r="E63">
-        <v>54.85</v>
+        <v>1.89</v>
       </c>
       <c r="F63">
-        <v>2025</v>
+        <v>2702</v>
       </c>
       <c r="G63">
-        <v>1894.5</v>
+        <v>2519.4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>6619.4400000000005</v>
+        <v>7215.16</v>
       </c>
       <c r="E64">
-        <v>3.82</v>
+        <v>54.85</v>
       </c>
       <c r="F64">
-        <v>1731.2</v>
+        <v>2025</v>
       </c>
       <c r="G64">
-        <v>2321.1000000000004</v>
+        <v>1894.5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D65">
-        <v>20854.39</v>
+        <v>6619.44</v>
       </c>
       <c r="E65">
-        <v>92.12</v>
+        <v>3.82</v>
       </c>
       <c r="F65">
-        <v>5661</v>
+        <v>1731.2</v>
       </c>
       <c r="G65">
-        <v>7221.17</v>
+        <v>2321.1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>20854.39</v>
       </c>
       <c r="E66">
-        <v>1.87</v>
+        <v>92.12</v>
       </c>
       <c r="F66">
         <v>5661</v>
@@ -2911,131 +2680,119 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D67">
-        <v>11956.99</v>
+        <v>20854.39</v>
       </c>
       <c r="E67">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="F67">
-        <v>3145</v>
+        <v>5661</v>
       </c>
       <c r="G67">
-        <v>3925.1999999999989</v>
+        <v>7221.17</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D68">
         <v>11956.99</v>
       </c>
       <c r="E68">
-        <v>6.98</v>
+        <v>2.68</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3145</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3925.2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>20854.39</v>
+        <v>11956.99</v>
       </c>
       <c r="E69">
-        <v>1.88</v>
+        <v>6.98</v>
       </c>
       <c r="F69">
-        <v>5661</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>7221.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>20854.39</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>5661</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>7221.17</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71">
-        <v>35196.47</v>
-      </c>
-      <c r="E71">
-        <v>0.83</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D72">
-        <v>43</v>
+        <v>35196.47</v>
       </c>
       <c r="E72">
-        <v>900.1</v>
+        <v>0.83</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3046,16 +2803,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>900.1</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3066,62 +2826,35 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
-      </c>
-      <c r="C75" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75">
-        <v>4436.16</v>
-      </c>
-      <c r="E75">
-        <v>11.4</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>1111.75</v>
+        <v>4436.16</v>
       </c>
       <c r="E76">
-        <v>33.35</v>
+        <v>11.4</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3132,19 +2865,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>1111.75</v>
       </c>
       <c r="E77">
-        <v>975.63</v>
+        <v>33.35</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3155,19 +2888,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D78">
-        <v>1107</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>10.43</v>
+        <v>975.63</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3178,16 +2911,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3198,59 +2934,35 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81">
-        <v>39</v>
-      </c>
-      <c r="E81">
-        <v>425.72</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>425.72</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3261,39 +2973,27 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83">
-        <v>14</v>
-      </c>
-      <c r="E83">
-        <v>423.68</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>256</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>423.68</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3304,42 +3004,27 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85">
-        <v>6</v>
-      </c>
-      <c r="E85">
-        <v>431.33</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>387.45</v>
+        <v>431.33</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3350,19 +3035,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>4050</v>
+        <v>387.45</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3373,16 +3058,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3393,39 +3081,27 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89">
-        <v>59</v>
-      </c>
-      <c r="E89">
-        <v>216.79</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>216.79</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3436,59 +3112,35 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92">
-        <v>1849.6100000000001</v>
-      </c>
-      <c r="E92">
-        <v>1.54</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1849.61</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3499,42 +3151,27 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94">
-        <v>878.56000000000006</v>
-      </c>
-      <c r="E94">
-        <v>5.91</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D95">
-        <v>1849.6100000000001</v>
+        <v>878.56</v>
       </c>
       <c r="E95">
-        <v>2.09</v>
+        <v>5.91</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3545,19 +3182,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D96">
-        <v>1098.21</v>
+        <v>1849.61</v>
       </c>
       <c r="E96">
-        <v>25.18</v>
+        <v>2.09</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3568,16 +3205,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>95</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1098.21</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3588,39 +3228,27 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98">
-        <v>1849.6100000000001</v>
-      </c>
-      <c r="E98">
-        <v>12.33</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>66</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1849.61</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>12.33</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3631,42 +3259,27 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
-      </c>
-      <c r="C100" t="s">
-        <v>41</v>
-      </c>
-      <c r="D100">
-        <v>460.82</v>
-      </c>
-      <c r="E100">
-        <v>54.85</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D101">
-        <v>875.79</v>
+        <v>460.82</v>
       </c>
       <c r="E101">
-        <v>3.82</v>
+        <v>54.85</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3677,19 +3290,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D102">
-        <v>1849.6100000000001</v>
+        <v>875.79</v>
       </c>
       <c r="E102">
-        <v>78.08</v>
+        <v>3.82</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3700,19 +3313,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D103">
-        <v>171.34</v>
+        <v>1849.61</v>
       </c>
       <c r="E103">
-        <v>30.34</v>
+        <v>78.08</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3723,19 +3336,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D104">
-        <v>1849.6100000000001</v>
+        <v>171.34</v>
       </c>
       <c r="E104">
-        <v>1.87</v>
+        <v>30.34</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3746,19 +3359,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D105">
-        <v>1088.25</v>
+        <v>1849.61</v>
       </c>
       <c r="E105">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3769,19 +3382,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D106">
         <v>1088.25</v>
       </c>
       <c r="E106">
-        <v>6.98</v>
+        <v>2.68</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3792,19 +3405,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D107">
-        <v>1849.6100000000001</v>
+        <v>1088.25</v>
       </c>
       <c r="E107">
-        <v>1.88</v>
+        <v>6.98</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3815,16 +3428,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>66</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1849.61</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3835,59 +3451,35 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" t="s">
-        <v>76</v>
-      </c>
-      <c r="D110">
-        <v>357.26</v>
-      </c>
-      <c r="E110">
-        <v>1.54</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>65</v>
+      </c>
+      <c r="C111" t="s">
+        <v>66</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>357.26</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3898,42 +3490,27 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
-      </c>
-      <c r="C112" t="s">
-        <v>41</v>
-      </c>
-      <c r="D112">
-        <v>48.800000000000004</v>
-      </c>
-      <c r="E112">
-        <v>5.75</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D113">
-        <v>10.76</v>
+        <v>48.8</v>
       </c>
       <c r="E113">
-        <v>8.24</v>
+        <v>5.75</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3944,19 +3521,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D114">
-        <v>9.61</v>
+        <v>10.76</v>
       </c>
       <c r="E114">
-        <v>31.58</v>
+        <v>8.24</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3967,19 +3544,19 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D115">
-        <v>14.96</v>
+        <v>9.61</v>
       </c>
       <c r="E115">
-        <v>25.18</v>
+        <v>31.58</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3990,16 +3567,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>94</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>14.96</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4010,42 +3590,27 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
-      </c>
-      <c r="C117" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>763.01</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>275.48</v>
+        <v>763.01</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4056,19 +3621,19 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B119" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D119">
-        <v>4.6100000000000003</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>262.14</v>
+        <v>275.48</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4079,19 +3644,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B120" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E120">
-        <v>255.53</v>
+        <v>262.14</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4102,19 +3667,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B121" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D121">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>41.53</v>
+        <v>255.53</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4125,16 +3690,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
-        <v>326</v>
+        <v>314</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>41.53</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4145,42 +3713,27 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
-      </c>
-      <c r="C123" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123">
-        <v>55.24</v>
-      </c>
-      <c r="E123">
-        <v>203.26</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D124">
-        <v>440.17</v>
+        <v>55.24</v>
       </c>
       <c r="E124">
-        <v>110.84</v>
+        <v>203.26</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4191,19 +3744,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D125">
-        <v>41.18</v>
+        <v>440.17</v>
       </c>
       <c r="E125">
-        <v>88.88</v>
+        <v>110.84</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4214,19 +3767,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D126">
-        <v>35.550000000000004</v>
+        <v>41.18</v>
       </c>
       <c r="E126">
-        <v>65.09</v>
+        <v>88.88</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4237,19 +3790,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D127">
-        <v>5.33</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="E127">
-        <v>77.22</v>
+        <v>65.09</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4260,16 +3813,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B128" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+      <c r="C128" t="s">
+        <v>31</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>77.22</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4280,42 +3836,27 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B129" t="s">
-        <v>340</v>
-      </c>
-      <c r="C129" t="s">
-        <v>38</v>
-      </c>
-      <c r="D129">
-        <v>10</v>
-      </c>
-      <c r="E129">
-        <v>678.64</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>885.79</v>
+        <v>678.64</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4326,19 +3867,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B131" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>578.28</v>
+        <v>885.79</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4349,16 +3890,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B132" t="s">
-        <v>346</v>
+        <v>334</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>578.28</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -4369,42 +3913,27 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
-      </c>
-      <c r="C133" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
-        <v>5094.2700000000004</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B134" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>4725.45</v>
+        <v>5094.2700000000004</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -4415,19 +3944,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B135" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>1323.18</v>
+        <v>4725.45</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4438,19 +3967,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B136" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D136">
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1755</v>
+        <v>1323.18</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4461,19 +3990,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B137" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>1215</v>
+        <v>1755</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4484,19 +4013,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>1588.5</v>
+        <v>1215</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4507,16 +4036,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B139" t="s">
-        <v>360</v>
+        <v>348</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1588.5</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4527,42 +4059,27 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B140" t="s">
-        <v>362</v>
-      </c>
-      <c r="C140" t="s">
-        <v>38</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140">
-        <v>416.87</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B141" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>238.23</v>
+        <v>416.87</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4573,16 +4090,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B142" t="s">
-        <v>366</v>
+        <v>354</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>238.23</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4593,39 +4113,24 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>368</v>
-      </c>
-      <c r="C143" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143">
-        <v>7</v>
-      </c>
-      <c r="E143">
-        <v>1816</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>1816</v>
@@ -4639,19 +4144,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B145" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>1892.61</v>
+        <v>1816</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4662,19 +4167,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B146" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>1712.45</v>
+        <v>1892.61</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4685,19 +4190,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B147" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D147">
         <v>4</v>
       </c>
       <c r="E147">
-        <v>1816</v>
+        <v>1712.45</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4708,19 +4213,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B148" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D148">
         <v>4</v>
       </c>
       <c r="E148">
-        <v>1389.79</v>
+        <v>1816</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4731,16 +4236,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B149" t="s">
-        <v>380</v>
+        <v>368</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1389.79</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4751,42 +4259,27 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B150" t="s">
-        <v>382</v>
-      </c>
-      <c r="C150" t="s">
-        <v>41</v>
-      </c>
-      <c r="D150">
-        <v>1359.43</v>
-      </c>
-      <c r="E150">
-        <v>10.86</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B151" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D151">
-        <v>227.83</v>
+        <v>1359.43</v>
       </c>
       <c r="E151">
-        <v>9.67</v>
+        <v>10.86</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4797,19 +4290,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B152" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D152">
-        <v>13.56</v>
+        <v>227.83</v>
       </c>
       <c r="E152">
-        <v>8.0299999999999994</v>
+        <v>9.67</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4820,19 +4313,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B153" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D153">
-        <v>327.01</v>
+        <v>13.56</v>
       </c>
       <c r="E153">
-        <v>9.5500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4843,19 +4336,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B154" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D154">
-        <v>30</v>
+        <v>327.01</v>
       </c>
       <c r="E154">
-        <v>20.88</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4866,16 +4359,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>380</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>20.88</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4886,39 +4382,27 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B156" t="s">
-        <v>394</v>
-      </c>
-      <c r="C156" t="s">
-        <v>38</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>51133.89</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B157" t="s">
-        <v>396</v>
+        <v>384</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>51133.89</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4929,39 +4413,27 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B158" t="s">
-        <v>398</v>
-      </c>
-      <c r="C158" t="s">
-        <v>38</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>1335.03</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B159" t="s">
-        <v>400</v>
+        <v>388</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1335.03</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4972,39 +4444,27 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B160" t="s">
-        <v>402</v>
-      </c>
-      <c r="C160" t="s">
-        <v>38</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>1646.99</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
       <c r="B161" t="s">
-        <v>141</v>
+        <v>392</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1646.99</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -5015,128 +4475,89 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
-      </c>
-      <c r="C163" t="s">
-        <v>76</v>
-      </c>
-      <c r="D163">
-        <v>12496.26</v>
-      </c>
-      <c r="E163">
-        <v>1.54</v>
-      </c>
-      <c r="F163">
-        <v>2754.2</v>
-      </c>
-      <c r="G163">
-        <v>236.57000000000016</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B164" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="C164" t="s">
+        <v>66</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>12496.26</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>2754.2</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>236.57</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
-      </c>
-      <c r="C165" t="s">
-        <v>76</v>
-      </c>
-      <c r="D165">
-        <v>4394.24</v>
-      </c>
-      <c r="E165">
-        <v>15.44</v>
-      </c>
-      <c r="F165">
-        <v>2128.44</v>
-      </c>
-      <c r="G165">
-        <v>1635.7399999999998</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C166" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D166">
-        <v>1.08</v>
+        <v>4394.24</v>
       </c>
       <c r="E166">
-        <v>18.27</v>
+        <v>15.44</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2128.44</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1635.74</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B167" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1.08</v>
       </c>
       <c r="E167">
-        <v>36.450000000000003</v>
+        <v>18.27</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -5147,157 +4568,145 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C168" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D168">
-        <v>823.92000000000007</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>25.18</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="F168">
-        <v>415.05</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>290.75000000000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B169" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="C169" t="s">
+        <v>95</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>823.92</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>415.05</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>290.75</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
-      </c>
-      <c r="C170" t="s">
-        <v>105</v>
-      </c>
-      <c r="D170">
-        <v>3193.44</v>
-      </c>
-      <c r="E170">
-        <v>31.58</v>
-      </c>
-      <c r="F170">
-        <v>523.84</v>
-      </c>
-      <c r="G170">
-        <v>27.519999999999982</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C171" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D171">
-        <v>269.94</v>
+        <v>3193.44</v>
       </c>
       <c r="E171">
         <v>31.58</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>523.84</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D172">
-        <v>11666.460000000001</v>
+        <v>269.94</v>
       </c>
       <c r="E172">
-        <v>4.9400000000000004</v>
+        <v>31.58</v>
       </c>
       <c r="F172">
-        <v>1659.8600000000001</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>619.61000000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C173" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D173">
-        <v>829.80000000000007</v>
+        <v>11666.46</v>
       </c>
       <c r="E173">
         <v>4.9400000000000004</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1659.86</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>619.61</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C174" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D174">
-        <v>3505.31</v>
+        <v>829.8</v>
       </c>
       <c r="E174">
-        <v>25.18</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F174">
-        <v>720.2299999999999</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5305,19 +4714,22 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>153</v>
+      </c>
+      <c r="C175" t="s">
+        <v>95</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>3505.31</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>720.23</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5325,62 +4737,50 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B176" t="s">
-        <v>167</v>
-      </c>
-      <c r="C176" t="s">
-        <v>76</v>
-      </c>
-      <c r="D176">
-        <v>11666.460000000001</v>
-      </c>
-      <c r="E176">
-        <v>23.58</v>
-      </c>
-      <c r="F176">
-        <v>1971.8500000000001</v>
-      </c>
-      <c r="G176">
-        <v>307.62000000000012</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D177">
-        <v>829.80000000000007</v>
+        <v>11666.46</v>
       </c>
       <c r="E177">
         <v>23.58</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1971.85</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>307.62</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B178" t="s">
-        <v>171</v>
+        <v>159</v>
+      </c>
+      <c r="C178" t="s">
+        <v>66</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>829.8</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>23.58</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5391,111 +4791,96 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
-      </c>
-      <c r="C179" t="s">
-        <v>76</v>
-      </c>
-      <c r="D179">
-        <v>2177.87</v>
-      </c>
-      <c r="E179">
-        <v>28.35</v>
-      </c>
-      <c r="F179">
-        <v>155.37</v>
-      </c>
-      <c r="G179">
-        <v>365.75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D180">
-        <v>19.64</v>
+        <v>2177.87</v>
       </c>
       <c r="E180">
         <v>28.35</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>155.37</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C181" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D181">
-        <v>1580.3400000000001</v>
+        <v>19.64</v>
       </c>
       <c r="E181">
-        <v>265.55</v>
+        <v>28.35</v>
       </c>
       <c r="F181">
-        <v>295.37</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>63.20999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C182" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D182">
-        <v>43.56</v>
+        <v>1580.34</v>
       </c>
       <c r="E182">
-        <v>300.27999999999997</v>
+        <v>265.55</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>295.37</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>63.21</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C183" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D183">
-        <v>93.83</v>
+        <v>43.56</v>
       </c>
       <c r="E183">
-        <v>356.03</v>
+        <v>300.27999999999997</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5506,19 +4891,19 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C184" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D184">
-        <v>3059.21</v>
+        <v>93.83</v>
       </c>
       <c r="E184">
-        <v>2.97</v>
+        <v>356.03</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5529,85 +4914,73 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B185" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D185">
-        <v>12496.26</v>
+        <v>3059.21</v>
       </c>
       <c r="E185">
-        <v>1.88</v>
+        <v>2.97</v>
       </c>
       <c r="F185">
-        <v>2042.54</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>510.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>403</v>
+        <v>174</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>129</v>
+      </c>
+      <c r="C186" t="s">
+        <v>66</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>12496.26</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>2042.54</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>510.75</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B187" t="s">
-        <v>405</v>
-      </c>
-      <c r="C187" t="s">
-        <v>38</v>
-      </c>
-      <c r="D187">
-        <v>21</v>
-      </c>
-      <c r="E187">
-        <v>123.44</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D188">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E188">
-        <v>87.89</v>
+        <v>123.44</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5618,19 +4991,19 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B189" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D189">
-        <v>497.92</v>
+        <v>99</v>
       </c>
       <c r="E189">
-        <v>189.27</v>
+        <v>87.89</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5641,16 +5014,19 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>399</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>497.92</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>189.27</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5661,303 +5037,243 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>188</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B192" t="s">
-        <v>143</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B193" t="s">
-        <v>75</v>
-      </c>
-      <c r="C193" t="s">
-        <v>76</v>
-      </c>
-      <c r="D193">
-        <v>424.05</v>
-      </c>
-      <c r="E193">
-        <v>1.54</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>70.56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B194" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="C194" t="s">
+        <v>66</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>424.05</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
-      </c>
-      <c r="C195" t="s">
-        <v>105</v>
-      </c>
-      <c r="D195">
-        <v>190.82</v>
-      </c>
-      <c r="E195">
-        <v>31.58</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>10.59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="C196" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D196">
-        <v>238.53</v>
+        <v>190.82</v>
       </c>
       <c r="E196">
-        <v>25.18</v>
+        <v>31.58</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>13.23</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>94</v>
+      </c>
+      <c r="C197" t="s">
+        <v>95</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>238.53</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
-      </c>
-      <c r="C198" t="s">
-        <v>76</v>
-      </c>
-      <c r="D198">
-        <v>848.09</v>
-      </c>
-      <c r="E198">
-        <v>33.67</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <v>281.74</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D199">
-        <v>17515.91</v>
+        <v>848.09</v>
       </c>
       <c r="E199">
-        <v>4.0599999999999996</v>
+        <v>33.67</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>2911.57</v>
+        <v>281.74</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C200" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D200">
-        <v>254.43</v>
+        <v>17515.91</v>
       </c>
       <c r="E200">
-        <v>328.22</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>79.67</v>
+        <v>2911.57</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D201">
-        <v>2957.01</v>
+        <v>254.43</v>
       </c>
       <c r="E201">
-        <v>17.57</v>
+        <v>328.22</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>492.14</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C202" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D202">
-        <v>1272.1400000000001</v>
+        <v>2957.01</v>
       </c>
       <c r="E202">
-        <v>1.88</v>
+        <v>17.57</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>352.17</v>
+        <v>492.14</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>410</v>
+        <v>195</v>
       </c>
       <c r="B203" t="s">
-        <v>411</v>
+        <v>129</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D203">
-        <v>2826.9700000000003</v>
+        <v>1272.1400000000001</v>
       </c>
       <c r="E203">
-        <v>13.13</v>
+        <v>1.88</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>352.17</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B204" t="s">
-        <v>413</v>
+        <v>401</v>
+      </c>
+      <c r="C204" t="s">
+        <v>31</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>2826.97</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5968,59 +5284,35 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B205" t="s">
-        <v>143</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C206" t="s">
-        <v>76</v>
-      </c>
-      <c r="D206">
-        <v>234.63</v>
-      </c>
-      <c r="E206">
-        <v>1.54</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B207" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="C207" t="s">
+        <v>66</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>234.63</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -6031,42 +5323,27 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B208" t="s">
-        <v>418</v>
-      </c>
-      <c r="C208" t="s">
-        <v>105</v>
-      </c>
-      <c r="D208">
-        <v>129.04</v>
-      </c>
-      <c r="E208">
-        <v>31.58</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B209" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C209" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D209">
-        <v>30.17</v>
+        <v>129.04</v>
       </c>
       <c r="E209">
-        <v>44.26</v>
+        <v>31.58</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -6077,19 +5354,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B210" t="s">
-        <v>104</v>
+        <v>410</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D210">
-        <v>123.60000000000001</v>
+        <v>30.17</v>
       </c>
       <c r="E210">
-        <v>25.18</v>
+        <v>44.26</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -6100,16 +5377,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B211" t="s">
-        <v>196</v>
+        <v>94</v>
+      </c>
+      <c r="C211" t="s">
+        <v>95</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -6120,42 +5400,27 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B212" t="s">
-        <v>424</v>
-      </c>
-      <c r="C212" t="s">
-        <v>76</v>
-      </c>
-      <c r="D212">
-        <v>234.63</v>
-      </c>
-      <c r="E212">
-        <v>10.61</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B213" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C213" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D213">
-        <v>938.5</v>
+        <v>234.63</v>
       </c>
       <c r="E213">
-        <v>33.67</v>
+        <v>10.61</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -6166,19 +5431,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B214" t="s">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="C214" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D214">
-        <v>6241.05</v>
+        <v>938.5</v>
       </c>
       <c r="E214">
-        <v>4.0599999999999996</v>
+        <v>33.67</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -6189,19 +5454,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>429</v>
+        <v>190</v>
       </c>
       <c r="C215" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D215">
-        <v>187.70000000000002</v>
+        <v>6241.05</v>
       </c>
       <c r="E215">
-        <v>265.70999999999998</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -6212,19 +5477,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B216" t="s">
-        <v>204</v>
+        <v>419</v>
       </c>
       <c r="C216" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D216">
-        <v>795.28</v>
+        <v>187.7</v>
       </c>
       <c r="E216">
-        <v>17.57</v>
+        <v>265.70999999999998</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -6235,19 +5500,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B217" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C217" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D217">
-        <v>938.5</v>
+        <v>795.28</v>
       </c>
       <c r="E217">
-        <v>1.88</v>
+        <v>17.57</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6258,19 +5523,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B218" t="s">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D218">
-        <v>335.18</v>
+        <v>938.5</v>
       </c>
       <c r="E218">
-        <v>162</v>
+        <v>1.88</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6281,16 +5546,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>423</v>
+      </c>
+      <c r="C219" t="s">
+        <v>31</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>335.18</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6301,105 +5569,69 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B220" t="s">
-        <v>209</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B221" t="s">
-        <v>143</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B222" t="s">
-        <v>75</v>
-      </c>
-      <c r="C222" t="s">
-        <v>76</v>
-      </c>
-      <c r="D222">
-        <v>2432.54</v>
-      </c>
-      <c r="E222">
-        <v>1.54</v>
-      </c>
-      <c r="F222">
-        <v>1003.0199999999999</v>
-      </c>
-      <c r="G222">
-        <v>248.58000000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B223" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="C223" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D223">
-        <v>551.77</v>
+        <v>2432.54</v>
       </c>
       <c r="E223">
-        <v>122.63</v>
+        <v>1.54</v>
       </c>
       <c r="F223">
-        <v>269.92</v>
+        <v>1003.02</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>248.58</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B224" t="s">
-        <v>109</v>
+        <v>203</v>
+      </c>
+      <c r="C224" t="s">
+        <v>95</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>551.77</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>122.63</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>269.92</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -6407,269 +5639,242 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>216</v>
-      </c>
-      <c r="C225" t="s">
-        <v>105</v>
-      </c>
-      <c r="D225">
-        <v>4458.3599999999997</v>
-      </c>
-      <c r="E225">
-        <v>31.58</v>
-      </c>
-      <c r="F225">
-        <v>1808.86</v>
-      </c>
-      <c r="G225">
-        <v>97.870000000000118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B226" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="C226" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D226">
-        <v>4855.6500000000005</v>
+        <v>4458.3599999999997</v>
       </c>
       <c r="E226">
-        <v>25.18</v>
+        <v>31.58</v>
       </c>
       <c r="F226">
-        <v>2273.31</v>
+        <v>1808.86</v>
       </c>
       <c r="G226">
-        <v>105.25</v>
+        <v>97.87</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B227" t="s">
-        <v>196</v>
+        <v>94</v>
+      </c>
+      <c r="C227" t="s">
+        <v>95</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>4855.6499999999996</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>2273.31</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C228" t="s">
-        <v>76</v>
-      </c>
-      <c r="D228">
-        <v>2432.54</v>
-      </c>
-      <c r="E228">
-        <v>10.61</v>
-      </c>
-      <c r="F228">
-        <v>1252.4100000000001</v>
-      </c>
-      <c r="G228">
-        <v>170.07999999999993</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C229" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D229">
-        <v>8890.42</v>
+        <v>2432.54</v>
       </c>
       <c r="E229">
-        <v>33.67</v>
+        <v>10.61</v>
       </c>
       <c r="F229">
-        <v>3532.44</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="G229">
-        <v>404.52999999999975</v>
+        <v>170.08</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C230" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D230">
-        <v>73209.94</v>
+        <v>8890.42</v>
       </c>
       <c r="E230">
-        <v>4.0599999999999996</v>
+        <v>33.67</v>
       </c>
       <c r="F230">
-        <v>21046.21</v>
+        <v>3532.44</v>
       </c>
       <c r="G230">
-        <v>5723.3600000000006</v>
+        <v>404.53</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B231" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C231" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D231">
-        <v>1646.57</v>
+        <v>73209.94</v>
       </c>
       <c r="E231">
-        <v>265.70999999999998</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F231">
-        <v>642.26</v>
+        <v>21046.21</v>
       </c>
       <c r="G231">
-        <v>73.549999999999955</v>
+        <v>5723.36</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D232">
-        <v>1673</v>
+        <v>1646.57</v>
       </c>
       <c r="E232">
-        <v>14.93</v>
+        <v>265.70999999999998</v>
       </c>
       <c r="F232">
-        <v>196.72000000000003</v>
+        <v>642.26</v>
       </c>
       <c r="G232">
-        <v>531.28</v>
+        <v>73.55</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C233" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D233">
-        <v>1644</v>
+        <v>1673</v>
       </c>
       <c r="E233">
-        <v>36.76</v>
+        <v>14.93</v>
       </c>
       <c r="F233">
-        <v>642.2600000000001</v>
+        <v>196.72</v>
       </c>
       <c r="G233">
-        <v>85.739999999999895</v>
+        <v>531.28</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C234" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D234">
-        <v>11719.460000000001</v>
+        <v>1644</v>
       </c>
       <c r="E234">
-        <v>1.65</v>
+        <v>36.76</v>
       </c>
       <c r="F234">
-        <v>2247.9199999999996</v>
+        <v>642.26</v>
       </c>
       <c r="G234">
-        <v>2762.7500000000005</v>
+        <v>85.74</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>434</v>
+        <v>221</v>
       </c>
       <c r="B235" t="s">
-        <v>435</v>
+        <v>222</v>
       </c>
       <c r="C235" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D235">
-        <v>330</v>
+        <v>11719.46</v>
       </c>
       <c r="E235">
-        <v>90</v>
+        <v>1.65</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>2247.92</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>2762.75</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B236" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D236">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="E236">
-        <v>2700</v>
+        <v>90</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6680,16 +5885,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>427</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6700,31 +5908,39 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
-      </c>
-      <c r="C238" t="s">
-        <v>53</v>
-      </c>
-      <c r="D238">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>225</v>
+      </c>
+      <c r="B239" t="s">
+        <v>226</v>
+      </c>
+      <c r="C239" t="s">
+        <v>43</v>
+      </c>
+      <c r="D239">
         <v>1</v>
       </c>
-      <c r="E238">
+      <c r="E239">
         <v>27140.240000000002</v>
       </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238">
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A15:G15 A26:G27 A24:C24 A20:G23 A16:C16 A17:C17 A18:C18 A19:C19 A29:G29 A28:C28 A31:G32 A30:C30 A35:G35 A33:C33 A34:C34 A37:G37 A36:C36 A39:G43 A38:C38 A47:G51 A44:C44 A45:C45 A46:C46 A53:G53 A52:C52 A55:G58 A54:C54 A60:G60 A59:C59 A62:G69 A61:C61 A71:G72 A70:C70 A75:G78 A73:C73 A74:C74 A81:G81 A79:C79 A80:C80 A83:G83 A82:C82 A85:G87 A84:C84 A89:G89 A88:C88 A92:G92 A90:C90 A91:C91 A94:G96 A93:C93 A98:G98 A97:C97 A100:G107 A99:C99 A110:G110 A108:C108 A109:C109 A112:G115 A111:C111 A117:G121 A116:C116 A123:G127 A122:C122 A129:G131 A128:C128 A133:G138 A132:C132 A140:G141 A139:C139 A143:G148 A142:C142 A150:G154 A149:C149 A156:G156 A155:C155 A158:G158 A157:C157 A160:G160 A159:C159 A163:G163 A161:C161 A162:C162 A165:G168 A164:C164 A170:G174 A169:C169 A176:G177 A175:C175 A179:G185 A178:C178 A187:G189 A186:C186 A193:G193 A190:C190 A191:C191 A192:C192 A195:G196 A194:C194 A198:G203 A197:C197 A206:G206 A204:C204 A205:C205 A208:G210 A207:C207 A212:G218 A211:C211 A25:C25" numberStoredAsText="1"/>
+    <ignoredError sqref="A16:C16 A27:C28 A25:C25 A21:C24 A17:C17 A18:C18 A19:C19 A20:C20 A30:C30 A29:C29 A32:C33 A31:C31 A36:C36 A34:C34 A35:C35 A38:C38 A37:C37 A40:C44 A39:C39 A48:C52 A45:C45 A46:C46 A47:C47 A54:C54 A53:C53 A56:C59 A55:C55 A61:C61 A60:C60 A63:C70 A62:C62 A72:C73 A71:C71 A76:C79 A74:C74 A75:C75 A82:C82 A80:C80 A81:C81 A84:C84 A83:C83 A86:C88 A85:C85 A90:C90 A89:C89 A93:C93 A91:C91 A92:C92 A95:C97 A94:C94 A99:C99 A98:C98 A101:C108 A100:C100 A111:C111 A109:C109 A110:C110 A113:C116 A112:C112 A118:C122 A117:C117 A124:C128 A123:C123 A130:C132 A129:C129 A134:C139 A133:C133 A141:C142 A140:C140 A144:C149 A143:C143 A151:C155 A150:C150 A157:C157 A156:C156 A159:C159 A158:C158 A161:C161 A160:C160 A164:C164 A162:C162 A163:C163 A166:C169 A165:C165 A171:C175 A170:C170 A177:C178 A176:C176 A180:C186 A179:C179 A188:C190 A187:C187 A194:C194 A191:C191 A192:C192 A193:C193 A196:C197 A195:C195 A199:C204 A198:C198 A207:C207 A205:C205 A206:C206 A209:C211 A208:C208 A213:C219 A212:C212 A26:C26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>